--- a/bin/sheets/main_db/teams/SRL/PlayerPerformance_4316.xlsx
+++ b/bin/sheets/main_db/teams/SRL/PlayerPerformance_4316.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,6 +427,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Dickwella Patabendige Dilantha Niroshan Dickwella</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Does Not Bowl | Unknown</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -451,7 +516,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -503,7 +568,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3696</t>
+          <t>3696</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -555,7 +620,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3959</t>
+          <t>3959</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -607,7 +672,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3960</t>
+          <t>3960</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -647,7 +712,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>21/11/2016</t>
@@ -655,7 +719,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3962</t>
+          <t>3962</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -707,7 +771,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3963</t>
+          <t>3963</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -759,7 +823,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3965</t>
+          <t>3965</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -811,7 +875,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3983</t>
+          <t>3983</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -863,7 +927,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3985</t>
+          <t>3985</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -915,7 +979,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3987</t>
+          <t>3987</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -967,7 +1031,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3989</t>
+          <t>3989</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1019,7 +1083,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3990</t>
+          <t>3990</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1071,7 +1135,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4033</t>
+          <t>4033</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1123,7 +1187,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4038</t>
+          <t>4038</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1175,7 +1239,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4044</t>
+          <t>4044</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1227,7 +1291,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4054</t>
+          <t>4054</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1279,7 +1343,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4055</t>
+          <t>4055</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1331,7 +1395,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4058</t>
+          <t>4058</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1383,7 +1447,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4059</t>
+          <t>4059</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1435,7 +1499,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4060</t>
+          <t>4060</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1487,7 +1551,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4061</t>
+          <t>4061</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1539,7 +1603,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4062</t>
+          <t>4062</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1591,7 +1655,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4063</t>
+          <t>4063</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1643,7 +1707,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4064</t>
+          <t>4064</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1695,7 +1759,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4065</t>
+          <t>4065</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1747,7 +1811,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4079</t>
+          <t>4079</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1799,7 +1863,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4081</t>
+          <t>4081</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1851,7 +1915,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4082</t>
+          <t>4082</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1903,7 +1967,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4084</t>
+          <t>4084</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1955,7 +2019,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4087</t>
+          <t>4087</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2007,7 +2071,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4096</t>
+          <t>4096</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2059,7 +2123,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4098</t>
+          <t>4098</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2111,7 +2175,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4099</t>
+          <t>4099</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2163,7 +2227,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4116</t>
+          <t>4116</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2215,7 +2279,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4119</t>
+          <t>4119</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2255,7 +2319,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>25/01/2018</t>
@@ -2263,7 +2326,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4122</t>
+          <t>4122</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2315,7 +2378,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4124</t>
+          <t>4124</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2367,7 +2430,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4182</t>
+          <t>4182</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2419,7 +2482,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4183</t>
+          <t>4183</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2471,7 +2534,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4186</t>
+          <t>4186</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2523,7 +2586,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4187</t>
+          <t>4187</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2575,7 +2638,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4188</t>
+          <t>4188</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2615,7 +2678,6 @@
           <t>42</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>10/10/2018</t>
@@ -2623,7 +2685,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4209</t>
+          <t>4209</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2675,7 +2737,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4210</t>
+          <t>4210</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2727,7 +2789,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4211</t>
+          <t>4211</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2779,7 +2841,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4212</t>
+          <t>4212</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2831,7 +2893,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4215</t>
+          <t>4215</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2883,7 +2945,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4231</t>
+          <t>4231</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2935,7 +2997,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4232</t>
+          <t>4232</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2987,7 +3049,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4233</t>
+          <t>4233</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3039,7 +3101,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4261</t>
+          <t>4261</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3091,7 +3153,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4264</t>
+          <t>4264</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3143,7 +3205,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4269</t>
+          <t>4269</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3195,7 +3257,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4465</t>
+          <t>4465</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3247,7 +3309,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4600</t>
+          <t>4600</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3299,7 +3361,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4601</t>
+          <t>4601</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3330,6 +3392,587 @@
       <c r="J56" t="inlineStr">
         <is>
           <t>3</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4124</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>19.00%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4182</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1.04%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4183</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4186</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3.51%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4187</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>11.11%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4188</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4209</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4210</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>6.43%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4211</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>24.00%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4212</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>19.05%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4215</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>25.96%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4231</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23.31%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4232</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>3.02%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4233</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4261</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3.46%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4264</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>4.35%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4269</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1.65%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4465</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2.45%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4600</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4601</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.39%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/SRL/PlayerPerformance_4316.xlsx
+++ b/bin/sheets/main_db/teams/SRL/PlayerPerformance_4316.xlsx
@@ -1,15 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -712,6 +711,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>21/11/2016</t>
@@ -724,7 +724,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -2319,6 +2319,7 @@
           <t>35</t>
         </is>
       </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>25/01/2018</t>
@@ -2678,6 +2679,7 @@
           <t>42</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>10/10/2018</t>
@@ -2690,7 +2692,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3392,587 +3394,6 @@
       <c r="J56" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4124</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>19.00%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4182</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>1.04%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4183</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4186</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.51%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4187</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>11.11%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4188</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4209</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4210</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>6.43%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4211</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>24.00%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4212</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>19.05%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4215</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>25.96%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4231</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>23.31%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4232</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3.02%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4233</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4261</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>3.46%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4264</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>4.35%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4269</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1.65%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4465</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>6</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2.45%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4601</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0.39%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
         </is>
       </c>
     </row>
